--- a/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOPPROB1-2-b.PRN.xlsx.2_long_HighestDemandInReachableArea.xlsx
+++ b/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOPPROB1-2-b.PRN.xlsx.2_long_HighestDemandInReachableArea.xlsx
@@ -23,10 +23,10 @@
     <t>Depot Y: 14.399999618530273</t>
   </si>
   <si>
-    <t>Depot Total Demand: 10.0</t>
-  </si>
-  <si>
-    <t>Depot Total Distance: 1.7888543605804443</t>
+    <t>Depot Total Demand: 15.0</t>
+  </si>
+  <si>
+    <t>Depot Total Distance: 4.352055072784424</t>
   </si>
   <si>
     <t>Depot Total Trucks: 2</t>
@@ -35,7 +35,7 @@
     <t>Truck #0</t>
   </si>
   <si>
-    <t>Truck Max Distance: 2.5</t>
+    <t>Truck Max Distance: 5.0</t>
   </si>
   <si>
     <t>Truck Node Count: 1</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">Shipment Y: </t>
   </si>
   <si>
-    <t>Truck Node Count: 0</t>
-  </si>
-  <si>
-    <t>Truck Total Demand: 0.0</t>
-  </si>
-  <si>
-    <t>Truck Total Distance: 0.0</t>
+    <t>Truck #1</t>
+  </si>
+  <si>
+    <t>Truck Total Demand: 5.0</t>
+  </si>
+  <si>
+    <t>Truck Total Distance: 2.5632007122039795</t>
   </si>
   <si>
     <t>Depot #1</t>
@@ -206,13 +206,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -236,22 +236,36 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.399999618530273</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
     </row>
